--- a/data.xlsx
+++ b/data.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$101</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="193">
   <si>
     <t>PolicyNo</t>
   </si>
@@ -36,9 +36,90 @@
     <t>Type</t>
   </si>
   <si>
+    <t>ALMCIP06220601</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22064275.pdf</t>
+  </si>
+  <si>
     <t>FINAUTO</t>
   </si>
   <si>
+    <t>ALMCIP09220344</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22103643.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP12230342</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23182684.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP05220925</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22055637.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP01230162</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23010086.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP04230936</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23061280.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP01220182</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22005842.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP09230332</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23133818.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP09210384</t>
+  </si>
+  <si>
+    <t>ALMCIP05221102</t>
+  </si>
+  <si>
+    <t>ALMCIP06221046</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22066170.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP08220904</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22092702.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP12220546</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23000303.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP12220961</t>
+  </si>
+  <si>
+    <t>ALMCIP05231216</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23083463.pdf</t>
+  </si>
+  <si>
     <t>ALMCIP05231091</t>
   </si>
   <si>
@@ -105,6 +186,9 @@
     <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22016611.pdf</t>
   </si>
   <si>
+    <t>ALMCIP02230272</t>
+  </si>
+  <si>
     <t>ALMCIP05220934</t>
   </si>
   <si>
@@ -129,6 +213,9 @@
     <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22105067.pdf</t>
   </si>
   <si>
+    <t>ALMCIP08230551</t>
+  </si>
+  <si>
     <t>B0012627</t>
   </si>
   <si>
@@ -174,6 +261,9 @@
     <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22009827.pdf</t>
   </si>
   <si>
+    <t>ALMCIP12210412</t>
+  </si>
+  <si>
     <t>ALMCIP03220081</t>
   </si>
   <si>
@@ -216,6 +306,9 @@
     <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23026786.pdf</t>
   </si>
   <si>
+    <t>ALMCIP05220477</t>
+  </si>
+  <si>
     <t>ALMCIP10221162</t>
   </si>
   <si>
@@ -258,6 +351,15 @@
     <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22055634.pdf</t>
   </si>
   <si>
+    <t>ALMCIP02231362</t>
+  </si>
+  <si>
+    <t>ALMCIP10230780</t>
+  </si>
+  <si>
+    <t>ALMCIP06230894</t>
+  </si>
+  <si>
     <t>ALMCIP01231097</t>
   </si>
   <si>
@@ -306,6 +408,9 @@
     <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22070955.pdf</t>
   </si>
   <si>
+    <t>ALMCIP07221470</t>
+  </si>
+  <si>
     <t>ALMCIP11220889</t>
   </si>
   <si>
@@ -372,6 +477,9 @@
     <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23126623.pdf</t>
   </si>
   <si>
+    <t>ALMCIP12220142</t>
+  </si>
+  <si>
     <t>ALMCIP01220403</t>
   </si>
   <si>
@@ -400,6 +508,9 @@
   </si>
   <si>
     <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22014646.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP09220543</t>
   </si>
   <si>
     <t>ALMCIP01220190</t>
@@ -852,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,21 +993,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>30599819</v>
+        <v>30288918</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>30608709</v>
+        <v>30631922</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -905,12 +1016,12 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>30553816</v>
+        <v>30700053</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -919,12 +1030,12 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>30590784</v>
+        <v>30386470</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -933,12 +1044,12 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>30295938</v>
+        <v>30539287</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -947,12 +1058,12 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>30359179</v>
+        <v>30222421</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -961,12 +1072,12 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>30008367</v>
+        <v>30649024</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -975,12 +1086,12 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>30224549</v>
+        <v>30704426</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -989,949 +1100,1221 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>18000516</v>
+        <v>30660282</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>30595846</v>
+        <v>30334823</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>30647483</v>
+        <v>30523415</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>30226476</v>
+        <v>30354344</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>30686425</v>
+        <v>30479114</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>30608897</v>
+        <v>30551548</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>30532251</v>
+        <v>30402086</v>
       </c>
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>30599819</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>30586343</v>
+        <v>30608709</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>30698791</v>
+        <v>30553816</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>30683027</v>
+        <v>30590784</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>30671234</v>
+        <v>30295938</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>30671234</v>
+        <v>30359179</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>30632883</v>
+        <v>30008367</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>30302485</v>
+        <v>30224549</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>17005583</v>
+        <v>18000516</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>30483415</v>
+        <v>30595846</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>30230187</v>
+        <v>30647483</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>30004093</v>
+        <v>30631119</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>30706512</v>
+        <v>30226476</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30593174</v>
+        <v>30686425</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30566320</v>
+        <v>30608897</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30270624</v>
+        <v>30532251</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>30433780</v>
+        <v>30725841</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>30642937</v>
+      <c r="A34" t="s">
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>30016832</v>
+        <v>30586343</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>30001252</v>
+        <v>30698791</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>13001194</v>
+        <v>30683027</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>30476843</v>
+        <v>30671234</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>30637941</v>
+        <v>30671234</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>30507872</v>
+        <v>30632883</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>30682095</v>
+        <v>17005805</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>30511148</v>
+        <v>30302485</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>30507872</v>
+        <v>17005583</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>30007634</v>
+        <v>30483415</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>30679896</v>
+        <v>30230187</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>30451461</v>
+        <v>30004093</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>30451461</v>
+        <v>30706512</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>30259532</v>
+        <v>30593174</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>30495460</v>
+        <v>30626721</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>13000751</v>
+        <v>30566320</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>30678366</v>
+        <v>30270624</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>17006293</v>
+        <v>30433780</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>17006293</v>
+        <v>30642937</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>30020165</v>
+        <v>30016832</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>30469984</v>
+        <v>30001252</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>30556558</v>
+        <v>13001194</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>30513564</v>
+        <v>30461058</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>30264416</v>
+        <v>30730688</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>30728517</v>
+        <v>30679936</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" t="s">
-        <v>121</v>
-      </c>
-      <c r="D59" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>30564074</v>
+        <v>30476843</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>30668660</v>
+        <v>30637941</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>30668660</v>
+        <v>30507872</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>30660472</v>
+        <v>30682095</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D63" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>17004034</v>
+        <v>30511148</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>30645243</v>
+        <v>30507872</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>30506235</v>
+        <v>30007634</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>30309167</v>
+        <v>30679896</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>30611273</v>
+        <v>30698721</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>30558383</v>
+        <v>30451461</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D69" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>30463330</v>
+        <v>30451461</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D70" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>30651855</v>
+        <v>30259532</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>16003071</v>
+        <v>30495460</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D72" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>30647473</v>
+        <v>13000751</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D73" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>30264547</v>
+        <v>30678366</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D74" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>17005617</v>
+        <v>17006293</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D75" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
+        <v>17006293</v>
+      </c>
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>30020165</v>
+      </c>
+      <c r="B77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>30469984</v>
+      </c>
+      <c r="B78" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" t="s">
+        <v>148</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>30556558</v>
+      </c>
+      <c r="B79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>30638601</v>
+      </c>
+      <c r="B80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>30513564</v>
+      </c>
+      <c r="B81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>30264416</v>
+      </c>
+      <c r="B82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" t="s">
+        <v>155</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>30728517</v>
+      </c>
+      <c r="B83" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" t="s">
+        <v>157</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>30564074</v>
+      </c>
+      <c r="B84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" t="s">
+        <v>159</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>30668660</v>
+      </c>
+      <c r="B85" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>10002578</v>
+      </c>
+      <c r="B86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>30668660</v>
+      </c>
+      <c r="B87" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87" t="s">
+        <v>164</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>30660472</v>
+      </c>
+      <c r="B88" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" t="s">
+        <v>166</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>17004034</v>
+      </c>
+      <c r="B89" t="s">
+        <v>167</v>
+      </c>
+      <c r="C89" t="s">
+        <v>168</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>30645243</v>
+      </c>
+      <c r="B90" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" t="s">
+        <v>170</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>30506235</v>
+      </c>
+      <c r="B91" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" t="s">
+        <v>172</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>30309167</v>
+      </c>
+      <c r="B92" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" t="s">
+        <v>174</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>30611273</v>
+      </c>
+      <c r="B93" t="s">
+        <v>175</v>
+      </c>
+      <c r="C93" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>30558383</v>
+      </c>
+      <c r="B94" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" t="s">
+        <v>178</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>30463330</v>
+      </c>
+      <c r="B95" t="s">
+        <v>179</v>
+      </c>
+      <c r="C95" t="s">
+        <v>180</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>30651855</v>
+      </c>
+      <c r="B96" t="s">
+        <v>181</v>
+      </c>
+      <c r="C96" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>16003071</v>
+      </c>
+      <c r="B97" t="s">
+        <v>183</v>
+      </c>
+      <c r="C97" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>30647473</v>
+      </c>
+      <c r="B98" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" t="s">
+        <v>186</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>30264547</v>
+      </c>
+      <c r="B99" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" t="s">
+        <v>188</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>17005617</v>
+      </c>
+      <c r="B100" t="s">
+        <v>189</v>
+      </c>
+      <c r="C100" t="s">
+        <v>190</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>30726710</v>
       </c>
-      <c r="B76" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76" t="s">
-        <v>4</v>
+      <c r="B101" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D76"/>
+  <autoFilter ref="A1:D101"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChiaChungLim\PycharmProjects\Hospital-Bill-Extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B026CC-DAE2-412E-BBD2-7E18A9A6EA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A2CCCD-DC0B-4A5F-ACE4-3A455CFE3112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$D$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
-  <si>
-    <t>PolicyNo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>ClaimNo</t>
   </si>
@@ -53,214 +50,224 @@
     <t>FINAUTO</t>
   </si>
   <si>
-    <t>ALMCIP07220267</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22070955.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP11220889</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22136635.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP12220945</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23010946.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP07221437</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22080703.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP01220005</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22005815.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP09220519</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22106643.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP09220940</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22106631.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP10220827</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22119942.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP10221207</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22133612.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP06231304</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23093722.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP10230129</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23148552.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP08231559</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23126623.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP01220403</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22008049.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP11221166</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22142656.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP06230864</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23089121.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP02220186</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22019586.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP02220022</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22014646.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP01220190</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22003484.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP02230383</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23040308.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP06220101</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22057135.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP04231284</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23064819.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP12220882</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23003247.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP09220833</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22105071.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP09210333</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH21088476.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP12220771</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23002405.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP08210050</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH21075002.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP07220633</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22073813.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP10231438</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23163233.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP02220130</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22016613.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP07220166</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22070951.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP07220982</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH22077922.pdf</t>
-  </si>
-  <si>
-    <t>ALMCIP11230773</t>
-  </si>
-  <si>
-    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH23174397.pdf</t>
+    <t>PolicyNumber</t>
+  </si>
+  <si>
+    <t>IL20050245246</t>
+  </si>
+  <si>
+    <t>ALMCIP09190707</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19109637.pdf</t>
+  </si>
+  <si>
+    <t>IL20070012373</t>
+  </si>
+  <si>
+    <t>ALMCIP09190673</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19110315.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP09190198</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19103198.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP09190193</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19109071.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP10190048</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19116175.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP09190899</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19112212.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP09190896</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19114660.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP09190605</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19114657.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP09190372</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19119548.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP09190556</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19108569.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP09190351</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19103171.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP09190311</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19103229.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP09190536</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19106859.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP09190852</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19116171.pdf</t>
+  </si>
+  <si>
+    <t>IL20020033725</t>
+  </si>
+  <si>
+    <t>ALMCIP10190749</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19124021.pdf</t>
+  </si>
+  <si>
+    <t>IL20020095502</t>
+  </si>
+  <si>
+    <t>ALMCIP10190816</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19136230.pdf</t>
+  </si>
+  <si>
+    <t>B0005413</t>
+  </si>
+  <si>
+    <t>ALMCIP10190487</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19132689.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP10190678</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19127379.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP10190465</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19129327.pdf</t>
+  </si>
+  <si>
+    <t>IL20100019085</t>
+  </si>
+  <si>
+    <t>ALMCIP11190526</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19136926.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP11190910</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH20001623.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP11190868</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19139900.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP11190858</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19139233.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP11190166</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19131987.pdf</t>
+  </si>
+  <si>
+    <t>IL20030080162</t>
+  </si>
+  <si>
+    <t>ALMCIP12190803</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH20007257.pdf</t>
+  </si>
+  <si>
+    <t>IL20030206486</t>
+  </si>
+  <si>
+    <t>ALMCIP12190196</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19146546.pdf</t>
+  </si>
+  <si>
+    <t>IL20110131215</t>
+  </si>
+  <si>
+    <t>ALMCIP12190462</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH19149624.pdf</t>
+  </si>
+  <si>
+    <t>IL20040113284</t>
+  </si>
+  <si>
+    <t>ALMCIP12190873</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH20005804.pdf</t>
+  </si>
+  <si>
+    <t>ALMCIP01200054</t>
+  </si>
+  <si>
+    <t>https://eclaims.micaresvc.com/viewUploadedFiles.aspx?filename=MH20006583.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -279,30 +286,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,484 +594,442 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A2:XFD11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>30679896</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>30451461</v>
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>30451461</v>
+        <v>24007126</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>30259532</v>
+        <v>22005123</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>30495460</v>
+        <v>22006318</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>13000751</v>
+        <v>30441894</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>30678366</v>
+        <v>30009436</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>17006293</v>
+        <v>17005083</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>17006293</v>
+        <v>30518041</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>30020165</v>
+        <v>16002213</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>30469984</v>
+        <v>30498886</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>30556558</v>
+        <v>30441573</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>30513564</v>
+        <v>30005849</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>30264416</v>
+        <v>30478125</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>30728517</v>
+      <c r="A16" t="s">
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>30564074</v>
+      <c r="A17" t="s">
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>30668660</v>
+      <c r="A18" t="s">
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>30668660</v>
+        <v>30548931</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>30660472</v>
+        <v>30457837</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>17004034</v>
+      <c r="A21" t="s">
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>30645243</v>
+        <v>30581342</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>30506235</v>
+        <v>30545841</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>30309167</v>
+        <v>30591040</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>30611273</v>
+        <v>30477697</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>30558383</v>
+      <c r="A26" t="s">
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>30463330</v>
+      <c r="A27" t="s">
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>30651855</v>
+      <c r="A28" t="s">
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>16003071</v>
+      <c r="A29" t="s">
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>30647473</v>
+        <v>22007253</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30264547</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>17005617</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>30726710</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D33" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D30" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>